--- a/flows/RENW_fund_flow_data.xlsx
+++ b/flows/RENW_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B890"/>
+  <dimension ref="A1:B906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9335,6 +9335,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
